--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,25</t>
+          <t>13,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 13,35</t>
+          <t>12,69; 13,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 10,38</t>
+          <t>9,62; 10,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,87; 13,64</t>
+          <t>12,92; 13,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 11,1</t>
+          <t>10,21; 11,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,84; 13,39</t>
+          <t>12,87; 13,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 10,64</t>
+          <t>10,06; 10,62</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,6</t>
+          <t>13,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,2; 14,1</t>
+          <t>13,07; 14,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 10,78</t>
+          <t>9,69; 10,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 13,44</t>
+          <t>12,7; 13,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 12,09</t>
+          <t>11,06; 12,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 13,62</t>
+          <t>12,99; 13,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 11,35</t>
+          <t>10,62; 11,38</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,77</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 13,72</t>
+          <t>12,88; 13,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,7; 11,31</t>
+          <t>9,66; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 13,33</t>
+          <t>12,14; 13,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 14,37</t>
+          <t>11,85; 14,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 13,47</t>
+          <t>12,78; 13,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 12,03</t>
+          <t>10,62; 12,04</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>13,03</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 13,43</t>
+          <t>12,73; 13,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 11,95</t>
+          <t>10,24; 11,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 13,62</t>
+          <t>12,8; 13,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 12,86</t>
+          <t>11,05; 12,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 13,42</t>
+          <t>12,86; 13,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 12,03</t>
+          <t>10,82; 12,0</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 13,63</t>
+          <t>12,7; 13,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 10,97</t>
+          <t>8,95; 11,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 13,84</t>
+          <t>12,64; 13,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 13,95</t>
+          <t>11,79; 13,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,76; 13,54</t>
+          <t>12,77; 13,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 12,55</t>
+          <t>10,92; 12,57</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,68</t>
+          <t>10,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,93</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>11,12</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,62</t>
+          <t>9,31; 15,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,64</t>
+          <t>9,75; 12,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 18,25</t>
+          <t>13,82; 18,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,84</t>
+          <t>10,04; 12,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 16,76</t>
+          <t>12,93; 16,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 12,05</t>
+          <t>10,21; 12,27</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>13,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13,18</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11,55</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>13,19</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>13,19</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,55</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>13,19</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>10,98</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,03; 13,38</t>
+          <t>13,0; 13,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,07; 10,66</t>
+          <t>10,08; 10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,99; 13,37</t>
+          <t>13,0; 13,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 11,85</t>
+          <t>11,27; 11,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 13,33</t>
+          <t>13,06; 13,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,75; 11,2</t>
+          <t>10,76; 11,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud mental general - escala</t>
+          <t>Salud mental general - escala (tasa de respuesta: 98,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,62; 10,38</t>
+          <t>9,66; 10,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 11,06</t>
+          <t>10,28; 11,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 10,62</t>
+          <t>10,08; 10,64</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 10,75</t>
+          <t>9,67; 10,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,06; 12,09</t>
+          <t>11,01; 12,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 11,38</t>
+          <t>10,61; 11,36</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 11,36</t>
+          <t>9,64; 11,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 14,5</t>
+          <t>11,86; 14,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 12,04</t>
+          <t>10,61; 12,03</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 11,89</t>
+          <t>10,24; 11,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 12,84</t>
+          <t>11,12; 12,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,0</t>
+          <t>10,89; 12,05</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,03</t>
+          <t>9,0; 10,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,79; 13,97</t>
+          <t>11,81; 13,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 12,57</t>
+          <t>10,93; 12,53</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,9</t>
+          <t>9,71; 12,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,04; 12,9</t>
+          <t>10,09; 12,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,21; 12,27</t>
+          <t>10,28; 12,39</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,08; 10,66</t>
+          <t>10,11; 10,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,27; 11,88</t>
+          <t>11,22; 11,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,76; 11,21</t>
+          <t>10,78; 11,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_MENTAL_GHQ12-Clase-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,01</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>13,06</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,01</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>10,65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>13,29</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,65</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>10,33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>13,17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,33</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9,66; 10,36</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>12,69; 13,47</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 10,36</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>10,28; 11,1</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>12,92; 13,73</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>10,28; 11,1</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>10,08; 10,64</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>12,87; 13,46</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 10,64</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,21</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>13,55</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,21</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>11,51</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>13,11</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,51</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>13,31</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9,67; 10,84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>13,07; 14,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9,67; 10,84</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>11,01; 12,0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>12,7; 13,51</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>11,01; 12,0</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>10,61; 11,36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>12,99; 13,58</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,61; 11,36</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,39</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>13,32</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,39</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>13,04</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>12,68</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>13,04</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>11,25</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>13,12</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,25</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>9,64; 11,35</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>12,88; 13,72</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9,64; 11,35</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>11,86; 14,41</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>12,14; 13,24</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>11,86; 14,41</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>10,61; 12,03</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>12,78; 13,45</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,61; 12,03</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>13,03</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>11,88</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>13,16</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,88</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>11,41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>13,1</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,41</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10,24; 11,86</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>12,73; 13,37</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10,24; 11,86</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>11,12; 12,92</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>12,8; 13,57</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,12; 12,92</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>10,89; 12,05</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>12,86; 13,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,89; 12,05</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>9,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>13,18</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,92</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>12,75</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>13,17</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>12,75</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>11,7</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>13,17</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,7</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>9,0; 10,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>12,7; 13,75</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 10,91</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>11,81; 13,96</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>12,64; 13,71</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>11,81; 13,96</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>10,93; 12,53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>12,77; 13,52</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>10,93; 12,53</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>10,99</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>13,5</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,99</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>11,19</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>16,42</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,19</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>11,12</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>15,13</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,12</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>9,71; 12,84</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>9,31; 15,68</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 12,84</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>10,09; 12,74</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>13,82; 18,69</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 12,74</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>10,28; 12,39</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>12,93; 16,87</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>10,28; 12,39</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>13,2</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,36</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>11,55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>13,18</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>11,55</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>10,98</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>13,19</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,98</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>10,11; 10,68</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>13,0; 13,38</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>10,11; 10,68</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>11,22; 11,87</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>13,0; 13,4</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>11,22; 11,87</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>10,78; 11,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>13,06; 13,32</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>10,78; 11,18</t>
         </is>
       </c>
     </row>
